--- a/data/dots_v2.xlsx
+++ b/data/dots_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswhite/Desktop/burbank_arts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596AC4E-51A1-1C4B-8C35-895745674BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555AF27D-4205-B342-96D8-9CC76BAC37DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="500" windowWidth="26480" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="500" windowWidth="26480" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Professional Development" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Artists in the Schools'!$A$1:$F$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Beyond the Classroom'!$A$1:$F$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Community Connections'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Performances!$A$1:$F$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Professional Development'!$A$1:$F$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Performances!$A$1:$F$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Professional Development'!$A$1:$F$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="415">
   <si>
     <t>Name of Location (if applicable)</t>
   </si>
@@ -257,18 +257,6 @@
     <t>95476-7944</t>
   </si>
   <si>
-    <t>Accelerated Achievement Academy</t>
-  </si>
-  <si>
-    <t>1031 N State St</t>
-  </si>
-  <si>
-    <t>Ukiah</t>
-  </si>
-  <si>
-    <t>95482-3413</t>
-  </si>
-  <si>
     <t>Austin Creek Elementary School</t>
   </si>
   <si>
@@ -428,18 +416,6 @@
     <t>95403-2499</t>
   </si>
   <si>
-    <t>Browns Valley Elementary School</t>
-  </si>
-  <si>
-    <t>1001 Buhman Ave</t>
-  </si>
-  <si>
-    <t>Napa</t>
-  </si>
-  <si>
-    <t>94558-5202</t>
-  </si>
-  <si>
     <t>Evergreen Elementary School</t>
   </si>
   <si>
@@ -449,27 +425,6 @@
     <t>94928-1999</t>
   </si>
   <si>
-    <t>Bel Aire Park Magnet School</t>
-  </si>
-  <si>
-    <t>3580 Beckworth Dr</t>
-  </si>
-  <si>
-    <t>94558-2846</t>
-  </si>
-  <si>
-    <t>Calistoga Elementary School</t>
-  </si>
-  <si>
-    <t>1327 Berry St</t>
-  </si>
-  <si>
-    <t>Calistoga</t>
-  </si>
-  <si>
-    <t>94515-1605</t>
-  </si>
-  <si>
     <t>Woodland Star Charter School</t>
   </si>
   <si>
@@ -599,42 +554,6 @@
     <t>95472-2607</t>
   </si>
   <si>
-    <t>Bolinas-Stinson Elementary School &amp; District</t>
-  </si>
-  <si>
-    <t>125 Olema Bolinas Rd</t>
-  </si>
-  <si>
-    <t>Bolinas</t>
-  </si>
-  <si>
-    <t>94924-9747</t>
-  </si>
-  <si>
-    <t>Blosser Lane Elementary School</t>
-  </si>
-  <si>
-    <t>1275 Blosser Ln</t>
-  </si>
-  <si>
-    <t>Willits</t>
-  </si>
-  <si>
-    <t>95490-4163</t>
-  </si>
-  <si>
-    <t>Compass Charter School</t>
-  </si>
-  <si>
-    <t>900 Hampshire Rd Ste A</t>
-  </si>
-  <si>
-    <t>Thousand Oaks</t>
-  </si>
-  <si>
-    <t>91361-2813</t>
-  </si>
-  <si>
     <t>Piner-Olivet Charter School</t>
   </si>
   <si>
@@ -692,15 +611,6 @@
     <t>6950 Analy Ave</t>
   </si>
   <si>
-    <t>Garden School</t>
-  </si>
-  <si>
-    <t>30 Sir Francis Drake Blvd</t>
-  </si>
-  <si>
-    <t>Ross</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -746,9 +656,6 @@
     <t>Art &amp; Soul</t>
   </si>
   <si>
-    <t>Blanca Alvarado School</t>
-  </si>
-  <si>
     <t>Brooks Elementary School</t>
   </si>
   <si>
@@ -837,12 +744,6 @@
   </si>
   <si>
     <t>1083 Vine St #426</t>
-  </si>
-  <si>
-    <t>1601 Cunningham Ave</t>
-  </si>
-  <si>
-    <t>San Jose</t>
   </si>
   <si>
     <t>5000 Harville Rd</t>
@@ -1898,7 +1799,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1920,13 +1821,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1934,10 +1835,10 @@
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
@@ -1946,18 +1847,18 @@
         <v>18</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>71</v>
@@ -1966,18 +1867,18 @@
         <v>18</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>40</v>
@@ -1989,15 +1890,15 @@
         <v>95448</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>17</v>
@@ -2009,15 +1910,15 @@
         <v>95404</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
@@ -2029,175 +1930,175 @@
         <v>95401</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="C7" s="13" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14">
-        <v>95122</v>
+      <c r="E7" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>253</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>278</v>
+      <c r="E12" s="12">
+        <v>94931</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>121</v>
+        <v>195</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="12">
-        <v>94931</v>
+      <c r="E13" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>17</v>
@@ -2205,19 +2106,19 @@
       <c r="D15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>282</v>
+      <c r="E15" s="14">
+        <v>95401</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>17</v>
@@ -2225,159 +2126,159 @@
       <c r="D16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="14">
-        <v>95401</v>
+      <c r="E16" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>285</v>
+      <c r="E17" s="12">
+        <v>95407</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="12">
-        <v>95407</v>
+      <c r="E18" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>17</v>
+        <v>199</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12">
+        <v>95448</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>40</v>
+        <v>212</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="12">
-        <v>95448</v>
+      <c r="E20" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>93</v>
+        <v>260</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>294</v>
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>296</v>
+        <v>144</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>427</v>
+        <v>215</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>17</v>
@@ -2386,18 +2287,18 @@
         <v>18</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>297</v>
+        <v>216</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>17</v>
@@ -2406,198 +2307,198 @@
         <v>18</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>17</v>
+        <v>200</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>300</v>
+      <c r="E26" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>71</v>
+        <v>201</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>425</v>
+      <c r="E27" s="14">
+        <v>95425</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="14">
-        <v>95425</v>
+      <c r="E28" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>34</v>
+      <c r="E31" s="14">
+        <v>95401</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>17</v>
+        <v>99</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="14">
-        <v>95401</v>
+      <c r="E32" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>102</v>
+        <v>287</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="9">
+        <v>95472</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="9">
-        <v>95472</v>
+        <v>76</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>17</v>
@@ -2606,18 +2507,18 @@
         <v>18</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>17</v>
@@ -2626,18 +2527,18 @@
         <v>18</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>17</v>
@@ -2646,18 +2547,18 @@
         <v>18</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>17</v>
@@ -2666,18 +2567,18 @@
         <v>18</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>17</v>
@@ -2686,118 +2587,118 @@
         <v>18</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>149</v>
+      <c r="E40" s="14">
+        <v>95476</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>253</v>
+        <v>8</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>313</v>
+        <v>145</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="14">
-        <v>95476</v>
+      <c r="E41" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>314</v>
+        <v>116</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>315</v>
+        <v>119</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>123</v>
+      <c r="E44" s="14">
+        <v>95405</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>17</v>
@@ -2805,92 +2706,80 @@
       <c r="D45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="14">
-        <v>95405</v>
+      <c r="E45" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>317</v>
+        <v>190</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>87</v>
+        <v>225</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>257</v>
+      <c r="E47" s="14">
+        <v>95448</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>40</v>
+        <v>129</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="14">
-        <v>95448</v>
+      <c r="E48" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>325</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2925,13 +2814,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>3</v>
@@ -2942,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>17</v>
@@ -2951,18 +2840,18 @@
         <v>18</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>30</v>
@@ -2971,10 +2860,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2982,19 +2871,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3002,7 +2891,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>17</v>
@@ -3014,7 +2903,7 @@
         <v>95404</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3022,7 +2911,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
@@ -3034,7 +2923,7 @@
         <v>95401</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3042,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>17</v>
@@ -3054,7 +2943,7 @@
         <v>95401</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3062,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>30</v>
@@ -3074,7 +2963,7 @@
         <v>95492</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3082,10 +2971,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>18</v>
@@ -3094,7 +2983,7 @@
         <v>95472</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3102,7 +2991,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>17</v>
@@ -3114,7 +3003,7 @@
         <v>95401</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3122,7 +3011,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>17</v>
@@ -3131,10 +3020,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3142,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
@@ -3151,10 +3040,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3167,10 +3056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3191,55 +3080,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>17</v>
@@ -3248,32 +3137,32 @@
         <v>18</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>17</v>
@@ -3282,15 +3171,15 @@
         <v>18</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>17</v>
@@ -3298,16 +3187,16 @@
       <c r="D7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>158</v>
+      <c r="E7" s="19">
+        <v>95403</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>17</v>
@@ -3316,304 +3205,304 @@
         <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="19">
-        <v>95403</v>
+      <c r="E13" s="19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="19">
-        <v>94957</v>
+      <c r="E20" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>174</v>
+        <v>50</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>175</v>
+      <c r="E23" s="19">
+        <v>95452</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>153</v>
+        <v>5</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>154</v>
+      <c r="E24" s="19">
+        <v>95401</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>172</v>
+      <c r="E25" s="19">
+        <v>95401</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
-        <v>117</v>
+        <v>377</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>17</v>
@@ -3622,49 +3511,49 @@
         <v>18</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>17</v>
@@ -3673,49 +3562,49 @@
         <v>18</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="19">
-        <v>95452</v>
+        <v>95421</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>427</v>
+        <v>21</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>17</v>
@@ -3723,16 +3612,16 @@
       <c r="D32" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="19">
-        <v>95401</v>
+      <c r="E32" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>17</v>
@@ -3740,118 +3629,118 @@
       <c r="D33" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="19">
-        <v>95401</v>
+      <c r="E33" s="19" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>410</v>
+        <v>31</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>128</v>
+        <v>19</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>129</v>
+      <c r="E37" s="19">
+        <v>94951</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>430</v>
+        <v>76</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="19">
-        <v>95421</v>
+      <c r="E39" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>17</v>
@@ -3859,16 +3748,16 @@
       <c r="D40" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="19" t="s">
-        <v>23</v>
+      <c r="E40" s="19">
+        <v>95403</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>17</v>
@@ -3877,83 +3766,83 @@
         <v>18</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>429</v>
+        <v>85</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="19">
-        <v>94951</v>
+      <c r="E45" s="19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>17</v>
@@ -3962,15 +3851,15 @@
         <v>18</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>17</v>
@@ -3979,15 +3868,15 @@
         <v>18</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>17</v>
@@ -3995,16 +3884,16 @@
       <c r="D48" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="19">
-        <v>95403</v>
+      <c r="E48" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>17</v>
@@ -4012,186 +3901,186 @@
       <c r="D49" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="19" t="s">
-        <v>166</v>
+      <c r="E49" s="19">
+        <v>95404</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="18" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="19">
-        <v>95404</v>
+      <c r="E57" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="D58" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>85</v>
+      <c r="E58" s="19">
+        <v>95472</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="18" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>71</v>
@@ -4199,161 +4088,25 @@
       <c r="D60" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="19" t="s">
-        <v>72</v>
+      <c r="E60" s="19">
+        <v>95476</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="18" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="19">
-        <v>95472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="19">
-        <v>95476</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4366,7 +4119,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4385,19 +4138,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4405,7 +4158,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
@@ -4417,15 +4170,15 @@
         <v>95407</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>30</v>
@@ -4437,15 +4190,15 @@
         <v>95492</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>30</v>
@@ -4457,15 +4210,15 @@
         <v>95492</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>17</v>
@@ -4477,15 +4230,15 @@
         <v>95407</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>17</v>
@@ -4497,18 +4250,18 @@
         <v>95403</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>18</v>
@@ -4517,15 +4270,15 @@
         <v>95436</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>17</v>
@@ -4537,18 +4290,18 @@
         <v>95407</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>18</v>
@@ -4557,12 +4310,12 @@
         <v>95472</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>28</v>
@@ -4577,15 +4330,15 @@
         <v>95405</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>17</v>
@@ -4597,15 +4350,15 @@
         <v>95401</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>17</v>
@@ -4617,12 +4370,12 @@
         <v>95403</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>65</v>
@@ -4637,15 +4390,15 @@
         <v>95404</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>33</v>
@@ -4657,7 +4410,7 @@
         <v>94952</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4677,7 +4430,7 @@
         <v>95405</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4685,10 +4438,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>18</v>
@@ -4697,15 +4450,15 @@
         <v>95472</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>17</v>
@@ -4717,15 +4470,15 @@
         <v>95403</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>17</v>
@@ -4737,15 +4490,15 @@
         <v>95404</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>17</v>
@@ -4757,15 +4510,15 @@
         <v>95404</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>40</v>
@@ -4777,15 +4530,15 @@
         <v>95448</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>17</v>
@@ -4797,15 +4550,15 @@
         <v>95407</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>17</v>
@@ -4817,15 +4570,15 @@
         <v>95407</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>17</v>
@@ -4837,7 +4590,7 @@
         <v>95403</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4857,15 +4610,15 @@
         <v>95409</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>17</v>
@@ -4877,15 +4630,15 @@
         <v>95404</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>17</v>
@@ -4897,15 +4650,15 @@
         <v>95401</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>30</v>
@@ -4917,15 +4670,15 @@
         <v>95492</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>17</v>
@@ -4937,15 +4690,15 @@
         <v>95403</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>17</v>
@@ -4957,15 +4710,15 @@
         <v>95407</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>17</v>
@@ -4977,15 +4730,15 @@
         <v>95407</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>17</v>
@@ -4997,15 +4750,15 @@
         <v>95407</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>17</v>
@@ -5017,15 +4770,15 @@
         <v>95401</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>17</v>
@@ -5037,15 +4790,15 @@
         <v>95401</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>17</v>
@@ -5057,18 +4810,18 @@
         <v>95401</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>18</v>
@@ -5077,15 +4830,15 @@
         <v>94928</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>17</v>
@@ -5097,15 +4850,15 @@
         <v>95401</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>17</v>
@@ -5117,18 +4870,18 @@
         <v>95409</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>18</v>
@@ -5137,15 +4890,15 @@
         <v>95472</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>17</v>
@@ -5157,15 +4910,15 @@
         <v>95407</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>17</v>
@@ -5177,15 +4930,15 @@
         <v>95401</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>17</v>
@@ -5197,15 +4950,15 @@
         <v>95407</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>17</v>
@@ -5217,15 +4970,15 @@
         <v>95407</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>17</v>
@@ -5237,15 +4990,15 @@
         <v>95403</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>17</v>
@@ -5257,15 +5010,15 @@
         <v>95403</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>17</v>
@@ -5277,15 +5030,15 @@
         <v>95403</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>17</v>
@@ -5297,15 +5050,15 @@
         <v>95403</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>17</v>
@@ -5317,15 +5070,15 @@
         <v>95403</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>17</v>
@@ -5337,15 +5090,15 @@
         <v>95403</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>17</v>
@@ -5357,15 +5110,15 @@
         <v>95404</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>17</v>
@@ -5377,15 +5130,15 @@
         <v>95404</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>17</v>
@@ -5397,15 +5150,15 @@
         <v>95403</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>17</v>
@@ -5417,15 +5170,15 @@
         <v>95401</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>17</v>
@@ -5437,15 +5190,15 @@
         <v>95494</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>17</v>
@@ -5457,15 +5210,15 @@
         <v>9545</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>17</v>
@@ -5477,15 +5230,15 @@
         <v>95403</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>17</v>
@@ -5497,18 +5250,18 @@
         <v>95403</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>18</v>
@@ -5517,18 +5270,18 @@
         <v>95425</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>18</v>
@@ -5537,15 +5290,15 @@
         <v>94928</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>17</v>
@@ -5557,18 +5310,18 @@
         <v>95403</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>18</v>
@@ -5577,15 +5330,15 @@
         <v>95439</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>17</v>
@@ -5597,15 +5350,15 @@
         <v>95403</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>17</v>
@@ -5617,15 +5370,15 @@
         <v>95405</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>40</v>
@@ -5637,18 +5390,18 @@
         <v>95448</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>18</v>
@@ -5657,15 +5410,15 @@
         <v>95425</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>17</v>
@@ -5677,18 +5430,18 @@
         <v>95401</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>18</v>
@@ -5697,18 +5450,18 @@
         <v>94928</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>18</v>
@@ -5717,18 +5470,18 @@
         <v>95425</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>18</v>
@@ -5737,15 +5490,15 @@
         <v>94928</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>17</v>
@@ -5757,15 +5510,15 @@
         <v>95407</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>17</v>
@@ -5777,15 +5530,15 @@
         <v>95404</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>17</v>
@@ -5797,15 +5550,15 @@
         <v>95407</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>17</v>
@@ -5817,15 +5570,15 @@
         <v>95407</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="C73" s="25" t="s">
         <v>17</v>
@@ -5837,15 +5590,15 @@
         <v>95407</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>17</v>
@@ -5857,15 +5610,15 @@
         <v>95401</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="C75" s="25" t="s">
         <v>17</v>
@@ -5877,15 +5630,15 @@
         <v>95401</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>17</v>
@@ -5897,15 +5650,15 @@
         <v>95401</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="C77" s="25" t="s">
         <v>30</v>
@@ -5917,15 +5670,15 @@
         <v>95492</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="C78" s="25" t="s">
         <v>30</v>
@@ -5937,15 +5690,15 @@
         <v>95492</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C79" s="25" t="s">
         <v>17</v>
@@ -5957,15 +5710,15 @@
         <v>95401</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="26" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C80" s="25" t="s">
         <v>17</v>
@@ -5977,18 +5730,18 @@
         <v>95401</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>18</v>
@@ -5997,18 +5750,18 @@
         <v>94928</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>18</v>
@@ -6017,15 +5770,15 @@
         <v>95472</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="C83" s="25" t="s">
         <v>17</v>
@@ -6037,18 +5790,18 @@
         <v>95401</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>18</v>
@@ -6057,15 +5810,15 @@
         <v>95472</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="25" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C85" s="25" t="s">
         <v>30</v>
@@ -6077,7 +5830,7 @@
         <v>95492</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -6093,7 +5846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805243C7-D259-476C-BBC7-90A127AC365E}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -6113,16 +5866,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>4</v>
@@ -6130,30 +5883,30 @@
     </row>
     <row r="2" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="E2" s="14">
         <v>95403</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>17</v>
@@ -6165,15 +5918,15 @@
         <v>95403</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>30</v>
@@ -6185,18 +5938,18 @@
         <v>95492</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>18</v>
@@ -6205,18 +5958,18 @@
         <v>95401</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>18</v>
@@ -6225,15 +5978,15 @@
         <v>94931</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>17</v>
@@ -6245,15 +5998,15 @@
         <v>95401</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>17</v>
@@ -6265,15 +6018,15 @@
         <v>95401</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>17</v>
@@ -6285,15 +6038,15 @@
         <v>95407</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>30</v>
@@ -6305,18 +6058,18 @@
         <v>95492</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>18</v>
@@ -6325,15 +6078,15 @@
         <v>94928</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>17</v>
@@ -6345,7 +6098,7 @@
         <v>95403</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
